--- a/playstation/output/finances_monthly.xlsx
+++ b/playstation/output/finances_monthly.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="2025-03-31" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="2025-04-30" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="savings" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Jan" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Feb" sheetId="4" r:id="rId7"/>
@@ -36,7 +36,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataChecksum="7Jz79/pBfrOQ+wJznornnf59qx/y7whEOcstnceioHA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId18" roundtripDataChecksum="zMs5Re0LOqHfmdrq+JhDMHo64mO1i+Tl9tC9cslHuK0="/>
     </ext>
   </extLst>
 </workbook>
@@ -3622,14 +3622,14 @@
     <xf borderId="3" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -3793,21 +3793,21 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" sz="1000">
+              <a:defRPr b="1" sz="1000">
                 <a:solidFill>
-                  <a:srgbClr val="757575"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Roboto"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1000">
+              <a:rPr b="1" sz="1000">
                 <a:solidFill>
-                  <a:srgbClr val="757575"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Roboto"/>
               </a:rPr>
-              <a:t>Updated as of 31st Mar 2025</a:t>
+              <a:t>Updated as of 30th April 2025</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3970,11 +3970,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="2096841649"/>
-        <c:axId val="278813009"/>
+        <c:axId val="908138968"/>
+        <c:axId val="1706876746"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2096841649"/>
+        <c:axId val="908138968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4026,10 +4026,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="278813009"/>
+        <c:crossAx val="1706876746"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="278813009"/>
+        <c:axId val="1706876746"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4104,7 +4104,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096841649"/>
+        <c:crossAx val="908138968"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4507,28 +4507,28 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="1"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="20"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
     </row>
     <row r="10">
-      <c r="A10" s="21"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1"/>
@@ -4538,7 +4538,7 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11">
-      <c r="A11" s="21"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="23" t="s">
         <v>12</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13">
-      <c r="A13" s="21"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="27" t="s">
         <v>16</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>1310.47</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14">
       <c r="A14" s="1"/>
@@ -4598,7 +4598,7 @@
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16">
@@ -21832,19 +21832,19 @@
       <c r="A99" s="47">
         <v>1054.0</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D99" s="48">
         <v>45664.0</v>
       </c>
-      <c r="E99" s="20">
+      <c r="E99" s="21">
         <v>39.99</v>
       </c>
-      <c r="F99" s="20">
+      <c r="F99" s="21">
         <v>0.0</v>
       </c>
       <c r="G99" s="5">
@@ -26435,19 +26435,19 @@
       <c r="A94" s="47">
         <v>1077.0</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="21" t="s">
         <v>202</v>
       </c>
       <c r="D94" s="48">
         <v>45725.0</v>
       </c>
-      <c r="E94" s="20">
+      <c r="E94" s="21">
         <v>19.99</v>
       </c>
-      <c r="F94" s="20">
+      <c r="F94" s="21">
         <v>11.99</v>
       </c>
       <c r="G94" s="5">
